--- a/Courses and Clubs.xlsx
+++ b/Courses and Clubs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c65a27c00da401eb/Desktop/Intro to Software Engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\4830\four-irons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{DF6C903E-9295-43CE-BC4C-760E672AC706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB71DA9E-923B-4C4C-AA28-26F7ECBB374E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F154B73A-0815-49E0-8CD6-B3E2B2D05C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9612" yWindow="24" windowWidth="13416" windowHeight="11184" xr2:uid="{2C0047DF-EDBC-4766-8A06-2BD14B4615D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0047DF-EDBC-4766-8A06-2BD14B4615D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>Golf Course</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Public?</t>
-  </si>
-  <si>
     <t>Benson Park Golf Course</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Happy Hollow Club</t>
   </si>
   <si>
-    <t>Ironwood Golf and Country Club of Omaha</t>
-  </si>
-  <si>
     <t>Johnny Goodman Golf Course</t>
   </si>
   <si>
@@ -199,6 +193,153 @@
   </si>
   <si>
     <t>SKLZ Home Driving Range Kit</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>5333 N 72nd St, Omaha, NE 68134</t>
+  </si>
+  <si>
+    <t>(402) 498-8900</t>
+  </si>
+  <si>
+    <t>(402) 444-4626</t>
+  </si>
+  <si>
+    <t>13800 Eagle Run Dr, Omaha, NE 68164</t>
+  </si>
+  <si>
+    <t>3435 N 132nd St, Omaha, NE 68164</t>
+  </si>
+  <si>
+    <t>(402) 498-9900</t>
+  </si>
+  <si>
+    <t>6232 Pacific St, Omaha, NE 68106</t>
+  </si>
+  <si>
+    <t>(402) 444-4683</t>
+  </si>
+  <si>
+    <t>3615 Woolworth Ave, Omaha, NE 68105</t>
+  </si>
+  <si>
+    <t>(402) 345-6343</t>
+  </si>
+  <si>
+    <t>4407 Fontenelle Blvd, Omaha, NE 68104</t>
+  </si>
+  <si>
+    <t>(402) 444-5955</t>
+  </si>
+  <si>
+    <t>1701 S 105th St, Omaha, NE 68124</t>
+  </si>
+  <si>
+    <t>(402) 391-2341</t>
+  </si>
+  <si>
+    <t>6111 S 99th St, Omaha, NE 68127</t>
+  </si>
+  <si>
+    <t>(402) 444-4656</t>
+  </si>
+  <si>
+    <t>11630 Sahler St, Omaha, NE 68164</t>
+  </si>
+  <si>
+    <t>(402) 444-5440</t>
+  </si>
+  <si>
+    <t>(402) 731-2001</t>
+  </si>
+  <si>
+    <t>6402 Q St, Omaha, NE 68117</t>
+  </si>
+  <si>
+    <t>1401 N 120th St, Omaha, NE 68154</t>
+  </si>
+  <si>
+    <t>(402) 498-0220</t>
+  </si>
+  <si>
+    <t>12325 Golfing Green Dr, Omaha, NE 68137</t>
+  </si>
+  <si>
+    <t>(402) 895-3636</t>
+  </si>
+  <si>
+    <t>(402) 571-7777</t>
+  </si>
+  <si>
+    <t>6900 Country Club Rd, Omaha, NE 68152</t>
+  </si>
+  <si>
+    <t>16810 Harney St, Omaha, NE 68118</t>
+  </si>
+  <si>
+    <t>(402) 330-4300</t>
+  </si>
+  <si>
+    <t>12101 Deer Creek Drive, Omaha, NE 68142</t>
+  </si>
+  <si>
+    <t>(402) 963-9950</t>
+  </si>
+  <si>
+    <t>1501 188th Plaza, Omaha, NE 68130</t>
+  </si>
+  <si>
+    <t>(402) 333-4020</t>
+  </si>
+  <si>
+    <t>4020 Hoctor Blvd, Omaha, NE 68107</t>
+  </si>
+  <si>
+    <t>(402) 444-4630</t>
+  </si>
+  <si>
+    <t>6220 N 160th Ave, Omaha NE 68116</t>
+  </si>
+  <si>
+    <t>(402) 965-9000</t>
+  </si>
+  <si>
+    <t>3865 Parkview Dr, Omaha, NE 68134</t>
+  </si>
+  <si>
+    <t>(402) 444-4623</t>
+  </si>
+  <si>
+    <t>12929 W Center Rd, Omaha, NE 68144</t>
+  </si>
+  <si>
+    <t>(402) 444-4658</t>
+  </si>
+  <si>
+    <t>10302 S 168th Street, Omaha, NE 68136</t>
+  </si>
+  <si>
+    <t>10303 S 168th Street, Omaha, NE 68136</t>
+  </si>
+  <si>
+    <t>10304 S 168th Street, Omaha, NE 68136</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>(402)-895-2688</t>
+  </si>
+  <si>
+    <t>(402)-895-2689</t>
+  </si>
+  <si>
+    <t>(402)-895-2690</t>
   </si>
 </sst>
 </file>
@@ -208,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +379,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,11 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,22 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9CF22B-9598-4E3A-A022-E3F08841024F}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,415 +751,567 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3">
+        <v>179.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H3" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3">
+        <v>529.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H5" s="3">
+        <v>299.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
+        <v>279.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3">
+        <v>799.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3">
         <v>179.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3">
+        <v>299.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>529.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="3">
+        <v>65.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="3">
+        <v>119.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3">
-        <v>299.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="3">
-        <v>279.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3">
-        <v>799.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3">
-        <v>179.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3">
-        <v>299.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3">
-        <v>34.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="3">
-        <v>23.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3">
-        <v>13.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="3">
-        <v>65.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3">
-        <v>24.97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="3">
-        <v>119.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
